--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_07.08.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700545.9386914</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700546.2279181</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700545.9386914.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700546.2279181.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2893.05</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2899.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>6.399999999999636</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700546.389514</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700547.5653694</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700546.389514.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700547.5653694.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2891.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2874.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-16.84999999999991</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700547.9922</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700548.2016397</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700547.9922.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.2016397.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2879.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2873.65</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>5.949999999999818</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700548.2163725</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700548.580397</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.2163725.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.580397.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2873.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2871.55</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2.099999999999909</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700548.643228</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700548.8306992</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.643228.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.8306992.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2873.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2868.05</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5.849999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700548.9444227</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700549.682449</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700548.9444227.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700549.682449.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2875.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2885.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-10.29999999999973</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700549.823073</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700550.256913</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700549.823073.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700550.256913.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2898.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2889.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>8.299999999999727</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700550.3546553</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700550.429424</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700550.3546553.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700550.429424.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2890.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2897.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>7.049999999999727</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700551.1544862</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700551.4975674</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700551.1544862.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700551.4975674.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2888.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2890</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700551.9779077</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700552.2920752</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700551.9779077.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700552.2920752.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>2894.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2885.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>9.099999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700552.7488453</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700554.27773</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700552.7488453.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700554.27773.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2895.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2901.65</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-6.150000000000091</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700554.878548</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700555.8499236</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700554.878548.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700555.8499236.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>2904.75</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2912</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-7.25</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700555.926718</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700556.0804183</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700555.926718.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700556.0804183.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>2908.15</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2912.1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.949999999999818</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700556.475361</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700556.6812937</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700556.475361.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700556.6812937.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>2903</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2910.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>7.650000000000091</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700557.0233796</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700557.7823775</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700557.0233796.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700557.7823775.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>2915.25</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2918.45</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-3.199999999999818</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700558.0400245</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700558.2384937</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700558.0400245.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700558.2384937.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>2921.15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>2922.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.049999999999727</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1371,44 +1483,50 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700558.3332684</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700558.3332684.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700558.3332684.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>2919.7</v>
       </c>
-      <c r="J19" t="n">
-        <v>2919.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2919.65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.04999999999972715</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1587,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.149999999999636</v>
+        <v>9.099999999999909</v>
       </c>
       <c r="C2" t="n">
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5382352941176256</v>
+        <v>0.5352941176470535</v>
       </c>
       <c r="E2" t="n">
         <v>0.3100000000000001</v>
